--- a/biology/Médecine/Franco_Cavalli/Franco_Cavalli.xlsx
+++ b/biology/Médecine/Franco_Cavalli/Franco_Cavalli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Franco Cavalli, né le 3 juillet 1942 à Locarno, est un médecin oncologue suisse de renommée mondiale, chercheur sur le cancer et homme politique membre du ForumAlternatif et du Parti socialiste.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Franco Cavalli est le chef de l'oncologie de l'hôpital de Bellinzone et professeur aux Universités de Berne et de Varèse.
 Entre 2001 et 2004, il a été président de la Ligue contre le cancer en Suisse et depuis 2003 il est directeur de l'Institut d'oncologie de la Suisse italophone (IOSI) à Bellinzone. En 2006, il devient président de l'Union internationale contre le cancer (UICC). Il est considéré comme l'un des chercheurs sur le cancer les plus renommés de Suisse.
 Il a été conseiller national du Parti social-démocrate et il fut un militant marxiste. Il fut un élu du canton du Tessin au Conseil national suisse de 1995 à 2007. En 2013, il a participé à la fondation du mouvement politique de gauche ForumAlternatif.
-Il s'intéresse au sort des cancéreux dans le Tiers-Monde, et stigmatise le poids de l'industrie pharmaceutique américaine[1].
-Il plaide pour une dépénalisation de l'euthanasie active[2].
+Il s'intéresse au sort des cancéreux dans le Tiers-Monde, et stigmatise le poids de l'industrie pharmaceutique américaine.
+Il plaide pour une dépénalisation de l'euthanasie active.
 Il est membre du comité de parrainage du Tribunal Russell sur la Palestine dont les travaux ont commencé le 4 mars 2009.
 </t>
         </is>
